--- a/data/trans_orig/P14_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>400706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>371062</v>
+        <v>371004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>432921</v>
+        <v>431775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3883850285005051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3596525840331558</v>
+        <v>0.3595963120978081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4196097477119646</v>
+        <v>0.4184987981022696</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>710</v>
@@ -765,19 +765,19 @@
         <v>728884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>689270</v>
+        <v>697324</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>766201</v>
+        <v>766334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.55423640655608</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5241148550482586</v>
+        <v>0.5302391929380698</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5826125280476901</v>
+        <v>0.5827134604339137</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1126</v>
@@ -786,19 +786,19 @@
         <v>1129589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1076907</v>
+        <v>1084213</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1176616</v>
+        <v>1180215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4813243269397056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4588763635476427</v>
+        <v>0.4619894008425924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5013630226345714</v>
+        <v>0.5028962860329609</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>261763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232197</v>
+        <v>233022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292492</v>
+        <v>290202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2537141343402698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2250574709868237</v>
+        <v>0.2258572380613112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2834990349926169</v>
+        <v>0.2812786787833064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>292</v>
@@ -836,19 +836,19 @@
         <v>295634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>266207</v>
+        <v>267807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327325</v>
+        <v>325240</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2247977392092272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2024215740371129</v>
+        <v>0.2036378525332279</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.248895118369716</v>
+        <v>0.2473096652256884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>556</v>
@@ -857,19 +857,19 @@
         <v>557397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517082</v>
+        <v>517838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600921</v>
+        <v>597609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2375100514536671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2203315473691554</v>
+        <v>0.2206539757040991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2560561112278637</v>
+        <v>0.254644819623688</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>369255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>337988</v>
+        <v>339955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>399078</v>
+        <v>402114</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.357900837159225</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3275955035407273</v>
+        <v>0.3295025175290202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3868075713726967</v>
+        <v>0.3897499209686874</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>289</v>
@@ -907,19 +907,19 @@
         <v>290595</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>260486</v>
+        <v>263322</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>321833</v>
+        <v>320308</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2209658542346928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1980709523592557</v>
+        <v>0.2002273729870213</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2447186398763185</v>
+        <v>0.2435595592583608</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>647</v>
@@ -928,19 +928,19 @@
         <v>659849</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>615887</v>
+        <v>617384</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>707898</v>
+        <v>701518</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2811656216066273</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2624331555569162</v>
+        <v>0.2630708103180329</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.301639324164759</v>
+        <v>0.298921085401619</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>185406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>163380</v>
+        <v>162279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>210052</v>
+        <v>212136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1094866397999996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0964798717920555</v>
+        <v>0.09582968047483903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.124040767556654</v>
+        <v>0.1252712544193527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -1053,19 +1053,19 @@
         <v>315084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>283768</v>
+        <v>287129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>346813</v>
+        <v>348140</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1984564935984686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1787318088254524</v>
+        <v>0.1808490132082423</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2184409399706436</v>
+        <v>0.2192769190167486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>496</v>
@@ -1074,19 +1074,19 @@
         <v>500490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>457499</v>
+        <v>459161</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>541246</v>
+        <v>540895</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1525379515168153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1394351167947069</v>
+        <v>0.1399417079500094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1649593581717506</v>
+        <v>0.1648524590811387</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>349096</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>316247</v>
+        <v>317228</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>381615</v>
+        <v>383505</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2061496125662816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1867513791945125</v>
+        <v>0.1873306728316663</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2253525041731789</v>
+        <v>0.2264686817609012</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>397</v>
@@ -1124,19 +1124,19 @@
         <v>401949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>364843</v>
+        <v>370174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>438368</v>
+        <v>437315</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2531688660937171</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2297973698630657</v>
+        <v>0.2331549196921135</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2761075411017466</v>
+        <v>0.2754441483428306</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>738</v>
@@ -1145,19 +1145,19 @@
         <v>751046</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>704271</v>
+        <v>707429</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>799849</v>
+        <v>805414</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.228901594882526</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2146456345356747</v>
+        <v>0.2156081067175137</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2437757042482992</v>
+        <v>0.2454718551445533</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>1158910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1120558</v>
+        <v>1121492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1193080</v>
+        <v>1196571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6843637476337188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6617160087766796</v>
+        <v>0.6622669972246553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7045417931776425</v>
+        <v>0.706603132691054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>848</v>
@@ -1195,19 +1195,19 @@
         <v>870640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>830173</v>
+        <v>831905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>907920</v>
+        <v>910988</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5483746403078144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5228865482315245</v>
+        <v>0.5239775848243041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5718554776406506</v>
+        <v>0.5737881219377605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1969</v>
@@ -1216,19 +1216,19 @@
         <v>2029550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1972726</v>
+        <v>1968546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2084411</v>
+        <v>2084242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6185604536006588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6012416679878211</v>
+        <v>0.5999678533286574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6352807514784123</v>
+        <v>0.6352292811764501</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>61871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47826</v>
+        <v>47490</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79367</v>
+        <v>78425</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1122055319504006</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08673385978372911</v>
+        <v>0.08612511987028924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1439351824448444</v>
+        <v>0.1422275402349704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -1341,19 +1341,19 @@
         <v>88394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70392</v>
+        <v>71698</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>106182</v>
+        <v>107258</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1855405862772002</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1477543147450348</v>
+        <v>0.1504964878412267</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2228781760159328</v>
+        <v>0.2251375327346365</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>141</v>
@@ -1362,19 +1362,19 @@
         <v>150265</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>127259</v>
+        <v>128875</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>173109</v>
+        <v>175470</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1461975614828023</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.123814170157149</v>
+        <v>0.1253865344784879</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1684238796269837</v>
+        <v>0.1707204373192293</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>108930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87470</v>
+        <v>90083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127008</v>
+        <v>129053</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1975494071556016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1586309857516296</v>
+        <v>0.1633684191369062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2303348673907823</v>
+        <v>0.2340422686174695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1412,19 +1412,19 @@
         <v>112907</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95331</v>
+        <v>95025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132155</v>
+        <v>133424</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2369942314574706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2001019480852123</v>
+        <v>0.1994591448430237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2773962139077577</v>
+        <v>0.2800597136464908</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -1433,19 +1433,19 @@
         <v>221837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194979</v>
+        <v>197079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>249124</v>
+        <v>247178</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2158327457973723</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1897015376733054</v>
+        <v>0.1917441878819024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2423809299268567</v>
+        <v>0.2404879756857618</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>380607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359564</v>
+        <v>357414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>402548</v>
+        <v>403448</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6902450608939978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6520825299539691</v>
+        <v>0.6481846758687148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.730036811651587</v>
+        <v>0.7316691813788585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1483,19 +1483,19 @@
         <v>275111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>252668</v>
+        <v>252240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297253</v>
+        <v>296661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5774651822653293</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5303556360987366</v>
+        <v>0.5294582200456718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6239419859368643</v>
+        <v>0.6226979147704464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>621</v>
@@ -1504,19 +1504,19 @@
         <v>655718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624556</v>
+        <v>622777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687164</v>
+        <v>684656</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6379696927198254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6076510308737108</v>
+        <v>0.6059206034646282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6685644701383275</v>
+        <v>0.6661247419551074</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>647983</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1977641401705281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1101</v>
@@ -1629,19 +1629,19 @@
         <v>1132361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3350976316574633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1763</v>
@@ -1650,19 +1650,19 @@
         <v>1780344</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2674899589204349</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>719789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>677729</v>
+        <v>675377</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>771532</v>
+        <v>770681</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2196794754031551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2068427398874251</v>
+        <v>0.2061248863663024</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.235471419809991</v>
+        <v>0.235211720508165</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>797</v>
@@ -1700,19 +1700,19 @@
         <v>810490</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>758999</v>
+        <v>762241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>858966</v>
+        <v>857965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.23984706006182</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2246092389081231</v>
+        <v>0.2255686375098144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2541923848687889</v>
+        <v>0.2538960515019897</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1511</v>
@@ -1721,19 +1721,19 @@
         <v>1530280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1463693</v>
+        <v>1467817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1592058</v>
+        <v>1609058</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2299187938484103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2199142963853485</v>
+        <v>0.2205340395080071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2392007587172627</v>
+        <v>0.2417548343497476</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>1908771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1850614</v>
+        <v>1849816</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1965630</v>
+        <v>1964320</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5825563844263167</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5648070139720753</v>
+        <v>0.5645634071098433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5999097614345623</v>
+        <v>0.5995099953480203</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1399</v>
@@ -1771,19 +1771,19 @@
         <v>1436346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1382979</v>
+        <v>1379209</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1496182</v>
+        <v>1489408</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4250553082807167</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4092625705483795</v>
+        <v>0.4081469544820988</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4427626270032043</v>
+        <v>0.4407580462236166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3237</v>
@@ -1792,19 +1792,19 @@
         <v>3345117</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3263538</v>
+        <v>3261034</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3427508</v>
+        <v>3420931</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5025912472311548</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4903343077575062</v>
+        <v>0.4899580200906325</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5149700962770787</v>
+        <v>0.5139819707932045</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>475878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>445426</v>
+        <v>441596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>511311</v>
+        <v>505610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.488258567754507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4570147854008531</v>
+        <v>0.4530845214343328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5246135283347529</v>
+        <v>0.5187643832585906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>797</v>
@@ -2156,19 +2156,19 @@
         <v>848951</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>813512</v>
+        <v>811894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>885101</v>
+        <v>887387</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6345887369943469</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6080979153211049</v>
+        <v>0.6068888638901494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6616106363666037</v>
+        <v>0.6633193988987099</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1231</v>
@@ -2177,19 +2177,19 @@
         <v>1324829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1278402</v>
+        <v>1278754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1373980</v>
+        <v>1373139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5729137512629494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5528367096421002</v>
+        <v>0.5529890095898788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5941690432969279</v>
+        <v>0.5938053625999914</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>194274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168395</v>
+        <v>168730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220330</v>
+        <v>221224</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1993285791602803</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1727758280665647</v>
+        <v>0.1731192982162555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2260618449844355</v>
+        <v>0.2269797490319053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>213</v>
@@ -2227,19 +2227,19 @@
         <v>228074</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>198666</v>
+        <v>200466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257552</v>
+        <v>258167</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1704848228391717</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1485020980263437</v>
+        <v>0.1498476513151465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1925194809495499</v>
+        <v>0.1929791556747302</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>394</v>
@@ -2248,19 +2248,19 @@
         <v>422348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>385083</v>
+        <v>388394</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461200</v>
+        <v>462825</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1826418391864195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1665267669377212</v>
+        <v>0.1679583267887981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1994432028966349</v>
+        <v>0.2001458464380798</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>304491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>274054</v>
+        <v>274695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>332639</v>
+        <v>335327</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3124128530852127</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2811838121087062</v>
+        <v>0.2818414754288226</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3412930933144028</v>
+        <v>0.3440510941042246</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>237</v>
@@ -2298,19 +2298,19 @@
         <v>260772</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>230403</v>
+        <v>231684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>288715</v>
+        <v>292002</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1949264401664815</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1722256780595748</v>
+        <v>0.1731834450261675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2158140088742507</v>
+        <v>0.2182706454786243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>530</v>
@@ -2319,19 +2319,19 @@
         <v>565263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>522816</v>
+        <v>527162</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>608971</v>
+        <v>609002</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2444444095506311</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2260885519263113</v>
+        <v>0.2279677540054525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2633454736510004</v>
+        <v>0.263359185254659</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>302544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269878</v>
+        <v>270154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335889</v>
+        <v>335760</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.154048412552854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1374155874115811</v>
+        <v>0.1375557196774263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1710265905424608</v>
+        <v>0.1709607618582848</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>397</v>
@@ -2444,19 +2444,19 @@
         <v>433807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394550</v>
+        <v>395325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473989</v>
+        <v>471082</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2467891470987051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2244562250281106</v>
+        <v>0.224897300423403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2696486086108119</v>
+        <v>0.2679949331072735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -2465,19 +2465,19 @@
         <v>736351</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686715</v>
+        <v>688419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>789915</v>
+        <v>788752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1978502447346918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1845135258901299</v>
+        <v>0.1849714389941751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.212242251131022</v>
+        <v>0.2119297861412228</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>372105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>337654</v>
+        <v>336488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>412813</v>
+        <v>410976</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1894667605635689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1719253285591301</v>
+        <v>0.1713314022368438</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2101943630648913</v>
+        <v>0.2092592370678274</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>385</v>
@@ -2515,19 +2515,19 @@
         <v>416551</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>379504</v>
+        <v>378308</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>455172</v>
+        <v>454710</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2369725586026655</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2158967322754069</v>
+        <v>0.215216440157843</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2589435023799862</v>
+        <v>0.2586809212383542</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>730</v>
@@ -2536,19 +2536,19 @@
         <v>788656</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>737982</v>
+        <v>742926</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>841682</v>
+        <v>843990</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2119039452975762</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1982885090936829</v>
+        <v>0.1996168005878576</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2261514988143355</v>
+        <v>0.2267717660741205</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>1289308</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1245946</v>
+        <v>1245945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1332751</v>
+        <v>1330303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6564848268835771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.634405729730148</v>
+        <v>0.6344053111586263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6786049990578126</v>
+        <v>0.6773584501497543</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>853</v>
@@ -2586,19 +2586,19 @@
         <v>907445</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>861007</v>
+        <v>864151</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>949865</v>
+        <v>955368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5162382942986294</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4898197712011119</v>
+        <v>0.4916086444791252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5403703683599654</v>
+        <v>0.5435013542090001</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2083</v>
@@ -2607,19 +2607,19 @@
         <v>2196753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2134099</v>
+        <v>2136712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2259206</v>
+        <v>2259605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.590245809967732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5734112927259157</v>
+        <v>0.5741134083434045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.607026357984271</v>
+        <v>0.6071334424194419</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>53704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40719</v>
+        <v>39141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>70354</v>
+        <v>69962</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1116095795024252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08462297288886401</v>
+        <v>0.08134259797671585</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1462110983687641</v>
+        <v>0.1453973433774673</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -2732,19 +2732,19 @@
         <v>91655</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74140</v>
+        <v>74987</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>110740</v>
+        <v>109284</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1998444392222983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1616543534654268</v>
+        <v>0.1635008083582318</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2414579715730576</v>
+        <v>0.2382836669538676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>128</v>
@@ -2753,19 +2753,19 @@
         <v>145359</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>124140</v>
+        <v>124631</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171386</v>
+        <v>174564</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.154668432828003</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1320900537647995</v>
+        <v>0.1326125060161731</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1823621128912476</v>
+        <v>0.1857431787299227</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>102612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84797</v>
+        <v>83855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122161</v>
+        <v>122621</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2132508289064726</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1762265556396013</v>
+        <v>0.1742686930920996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2538784584331623</v>
+        <v>0.2548328378858389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -2803,19 +2803,19 @@
         <v>110119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91321</v>
+        <v>90218</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130640</v>
+        <v>128360</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2401026120265505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1991164924399521</v>
+        <v>0.1967118125607366</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2848481265907725</v>
+        <v>0.2798761553526409</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>190</v>
@@ -2824,19 +2824,19 @@
         <v>212731</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187700</v>
+        <v>186819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242860</v>
+        <v>238869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2263545726486667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1997200619663508</v>
+        <v>0.1987830459083416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2584127120988822</v>
+        <v>0.2541661391543459</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>324864</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303085</v>
+        <v>302224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>345771</v>
+        <v>347540</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6751395915911023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6298779794419188</v>
+        <v>0.6280883878198351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7185887471019478</v>
+        <v>0.7222641339805054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>232</v>
@@ -2874,19 +2874,19 @@
         <v>256858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>233682</v>
+        <v>234346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>278846</v>
+        <v>280110</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5600529487511512</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5095210362463898</v>
+        <v>0.5109693635337402</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6079964556696071</v>
+        <v>0.6107524064559915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>532</v>
@@ -2895,19 +2895,19 @@
         <v>581723</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>551943</v>
+        <v>550071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>611685</v>
+        <v>611677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6189769945233302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5872903977840861</v>
+        <v>0.5852988240891054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6508580677107504</v>
+        <v>0.6508500306343837</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>832127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>775895</v>
+        <v>781472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>882651</v>
+        <v>883722</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2433274444956097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2268843297966983</v>
+        <v>0.22851507236995</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2581016181536104</v>
+        <v>0.2584146668153517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1277</v>
@@ -3020,19 +3020,19 @@
         <v>1374412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1315539</v>
+        <v>1317557</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1437061</v>
+        <v>1433773</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3866975404791046</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3701332331762084</v>
+        <v>0.3707011328678524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4043242392623925</v>
+        <v>0.4033989239709308</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2037</v>
@@ -3041,19 +3041,19 @@
         <v>2206539</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2126491</v>
+        <v>2130869</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2289459</v>
+        <v>2285942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3163944721310502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3049165009296003</v>
+        <v>0.3055442783847763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3282844196808042</v>
+        <v>0.3277800996909007</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>668991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>624947</v>
+        <v>620688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>717250</v>
+        <v>717375</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1956239383174946</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1827447160553284</v>
+        <v>0.1814994210048184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2097356599798632</v>
+        <v>0.2097720313429417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>695</v>
@@ -3091,19 +3091,19 @@
         <v>754743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>706343</v>
+        <v>705931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>802148</v>
+        <v>809711</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2123507653247506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.198733196764378</v>
+        <v>0.1986172586587995</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2256882969568533</v>
+        <v>0.2278160718865482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1314</v>
@@ -3112,19 +3112,19 @@
         <v>1423735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1351860</v>
+        <v>1358931</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1489427</v>
+        <v>1494953</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2041485858237159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1938425105203357</v>
+        <v>0.1948564395539794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2135681171674077</v>
+        <v>0.2143604960676389</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>1918664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1864007</v>
+        <v>1863923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1977002</v>
+        <v>1978325</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5610486171868957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5450659619439581</v>
+        <v>0.5450413784256277</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5781075757107416</v>
+        <v>0.5784945503594724</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1322</v>
@@ -3162,19 +3162,19 @@
         <v>1425075</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1364585</v>
+        <v>1365153</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1481605</v>
+        <v>1484948</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4009516941961448</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3839325556014649</v>
+        <v>0.3840924084465512</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4168567641190353</v>
+        <v>0.4177974332837406</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3145</v>
@@ -3183,19 +3183,19 @@
         <v>3343738</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3256241</v>
+        <v>3256729</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3427280</v>
+        <v>3427927</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.479456942045234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4669107685819932</v>
+        <v>0.4669806705366802</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4914359190260247</v>
+        <v>0.4915286386888916</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>334693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305724</v>
+        <v>309392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>360540</v>
+        <v>363183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4436856590362548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4052834511503385</v>
+        <v>0.4101449624473753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4779497217250202</v>
+        <v>0.4814540875392263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>552</v>
@@ -3547,19 +3547,19 @@
         <v>632282</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>597091</v>
+        <v>600786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>663426</v>
+        <v>665134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6356765512395877</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6002964950951859</v>
+        <v>0.604011824770505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6669876677964812</v>
+        <v>0.6687045815717638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>905</v>
@@ -3568,19 +3568,19 @@
         <v>966975</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>926171</v>
+        <v>925347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1007411</v>
+        <v>1008000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5528708706479365</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5295408199957479</v>
+        <v>0.5290701219110541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5759901931102049</v>
+        <v>0.5763270766037101</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>158894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136616</v>
+        <v>137215</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181149</v>
+        <v>180658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2106377784338569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1811044687636768</v>
+        <v>0.1818986144866081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2401398220850053</v>
+        <v>0.2394892272685587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -3618,19 +3618,19 @@
         <v>175964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152485</v>
+        <v>149737</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203713</v>
+        <v>202151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1769091371846374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.15330331468151</v>
+        <v>0.1505406616861321</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2048067981917636</v>
+        <v>0.2032362468864884</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -3639,19 +3639,19 @@
         <v>334858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>304501</v>
+        <v>298456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370101</v>
+        <v>369305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1914563016986464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.174099156745982</v>
+        <v>0.1706431431564991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2116062098618576</v>
+        <v>0.2111511790786215</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>260760</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>235294</v>
+        <v>234150</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287096</v>
+        <v>286389</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3456765625298882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3119175870365987</v>
+        <v>0.3104011920673141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3805883879903148</v>
+        <v>0.3796513830910219</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>182</v>
@@ -3689,19 +3689,19 @@
         <v>186414</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164726</v>
+        <v>162589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>215723</v>
+        <v>210576</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.187414311575775</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1656101305258197</v>
+        <v>0.1634618868818722</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.216880789885123</v>
+        <v>0.2117067415346033</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>433</v>
@@ -3710,19 +3710,19 @@
         <v>447174</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>411458</v>
+        <v>413756</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>483011</v>
+        <v>486436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.255672827653417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2352521259747648</v>
+        <v>0.2365659789560446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2761628433348732</v>
+        <v>0.2781211298709085</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>374409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342442</v>
+        <v>340475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410999</v>
+        <v>409618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.180317580172885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1649223989776572</v>
+        <v>0.1639750205970755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1979394787623132</v>
+        <v>0.1972747523932751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>485</v>
@@ -3835,19 +3835,19 @@
         <v>534722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493752</v>
+        <v>496513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>574152</v>
+        <v>574223</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2689342971398844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2483289161392404</v>
+        <v>0.2497173779639412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.288765108471095</v>
+        <v>0.2888011977883275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>841</v>
@@ -3856,19 +3856,19 @@
         <v>909131</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858776</v>
+        <v>855060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>961115</v>
+        <v>962370</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2236657419061716</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2112773180237371</v>
+        <v>0.2103632798832007</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.236454951590039</v>
+        <v>0.2367636207320989</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>423562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>386383</v>
+        <v>386119</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>464875</v>
+        <v>462309</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.203990304824193</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.186084654585564</v>
+        <v>0.1859573678110951</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2238865972174957</v>
+        <v>0.2226506679396469</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>413</v>
@@ -3906,19 +3906,19 @@
         <v>432681</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>393800</v>
+        <v>392267</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>469985</v>
+        <v>468368</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.217613543423283</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.198058875679511</v>
+        <v>0.1972874253288463</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2363754525943137</v>
+        <v>0.2355619819978793</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>812</v>
@@ -3927,19 +3927,19 @@
         <v>856243</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>801291</v>
+        <v>807225</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>908415</v>
+        <v>910911</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2106543110110214</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1971348753339109</v>
+        <v>0.1985946326789033</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2234896952089115</v>
+        <v>0.2241036374290919</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>1278414</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1233232</v>
+        <v>1230963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1322791</v>
+        <v>1321828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.615692115002922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5939320430751177</v>
+        <v>0.5928394509905481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6370642178390883</v>
+        <v>0.6366008119060412</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1010</v>
@@ -3977,19 +3977,19 @@
         <v>1020897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>976214</v>
+        <v>976500</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1069844</v>
+        <v>1066736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5134521594368326</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4909790913944875</v>
+        <v>0.4911231945224224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5380697168318679</v>
+        <v>0.5365066096987409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2207</v>
@@ -3998,19 +3998,19 @@
         <v>2299311</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2237534</v>
+        <v>2239347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2358176</v>
+        <v>2368295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5656799470828069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5504815581091644</v>
+        <v>0.5509274590611796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5801620665360609</v>
+        <v>0.5826515843033816</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>98554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81424</v>
+        <v>81287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>118330</v>
+        <v>118869</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1802092971019189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1488861099564272</v>
+        <v>0.1486366849870035</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2163708329849865</v>
+        <v>0.2173551941178394</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -4123,19 +4123,19 @@
         <v>109342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90119</v>
+        <v>89556</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>129735</v>
+        <v>129947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1991152600450661</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1641095619816685</v>
+        <v>0.1630840205690357</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.236250876435681</v>
+        <v>0.2366370878558859</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>183</v>
@@ -4144,19 +4144,19 @@
         <v>207896</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>182205</v>
+        <v>182381</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>235484</v>
+        <v>235314</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1896817200492387</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1662416522672406</v>
+        <v>0.1664021905812088</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2148524831941439</v>
+        <v>0.2146972266640562</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>95060</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76796</v>
+        <v>77457</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115467</v>
+        <v>117004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1738206583498235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1404240577148364</v>
+        <v>0.1416334711120349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2111360061886205</v>
+        <v>0.2139459894290723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -4194,19 +4194,19 @@
         <v>123001</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>103714</v>
+        <v>104668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141144</v>
+        <v>143585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2239877202584876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1888662244149663</v>
+        <v>0.1906030244773363</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.257026735712122</v>
+        <v>0.2614727412090992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -4215,19 +4215,19 @@
         <v>218061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191079</v>
+        <v>193292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245736</v>
+        <v>245078</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1989557773518148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1743375253263751</v>
+        <v>0.1763568756350802</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2242058713833364</v>
+        <v>0.2236059834013207</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>353272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>329517</v>
+        <v>327940</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>377070</v>
+        <v>375968</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6459700445482576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6025325368751224</v>
+        <v>0.599650085436386</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6894856454840054</v>
+        <v>0.687471387145535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>311</v>
@@ -4265,19 +4265,19 @@
         <v>316797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294392</v>
+        <v>291790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340586</v>
+        <v>341243</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5768970196964462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5360971078685656</v>
+        <v>0.5313573467439061</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6202166810764169</v>
+        <v>0.621412869770917</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>639</v>
@@ -4286,19 +4286,19 @@
         <v>670070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>637950</v>
+        <v>635979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>704407</v>
+        <v>702040</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6113625025989465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5820569080162132</v>
+        <v>0.580258457725218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6426915703417886</v>
+        <v>0.6405320929791568</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>807656</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>758574</v>
+        <v>760239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>861129</v>
+        <v>856325</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2391198635137189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2245884211624234</v>
+        <v>0.2250813347261823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2549515395821288</v>
+        <v>0.2535292432095166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1134</v>
@@ -4411,19 +4411,19 @@
         <v>1276346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1214380</v>
+        <v>1217842</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1329222</v>
+        <v>1337769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3613562031248809</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.343812366790873</v>
+        <v>0.3447926283677982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3763261672117382</v>
+        <v>0.3787461439749424</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1929</v>
@@ -4432,19 +4432,19 @@
         <v>2084002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2008196</v>
+        <v>2008265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2162750</v>
+        <v>2165418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3016044705328317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2906335114410898</v>
+        <v>0.2906434916377375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3130012300612195</v>
+        <v>0.3133872948364535</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>677516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>632967</v>
+        <v>628625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>725690</v>
+        <v>723877</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2005900196559224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1874002871036138</v>
+        <v>0.1861148876543908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2148527170557194</v>
+        <v>0.2143156930172021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>689</v>
@@ -4482,19 +4482,19 @@
         <v>731646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>680357</v>
+        <v>684284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>776546</v>
+        <v>783224</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2071419462138767</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1926212382825194</v>
+        <v>0.1937330047177312</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2198540524651399</v>
+        <v>0.221744436355986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1333</v>
@@ -4503,19 +4503,19 @@
         <v>1409163</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1343995</v>
+        <v>1343791</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1482560</v>
+        <v>1475232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2039392246263441</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1945078784451882</v>
+        <v>0.194478473924991</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.21456156941939</v>
+        <v>0.2135010854996549</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>1892446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1831301</v>
+        <v>1834240</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1948491</v>
+        <v>1955254</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5602901168303587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5421871760698956</v>
+        <v>0.5430571644950637</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5768831316300158</v>
+        <v>0.5788855216375491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1503</v>
@@ -4553,19 +4553,19 @@
         <v>1524108</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1465427</v>
+        <v>1460630</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1585034</v>
+        <v>1583193</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4315018506612424</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4148883447593603</v>
+        <v>0.4135303194484843</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4487511499519236</v>
+        <v>0.4482298809087431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3279</v>
@@ -4574,19 +4574,19 @@
         <v>3416554</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3336162</v>
+        <v>3328625</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3501780</v>
+        <v>3494126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4944563048408242</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4828217118591996</v>
+        <v>0.481730980116183</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.506790591224518</v>
+        <v>0.5056829373827508</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>305653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>282548</v>
+        <v>283804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>327890</v>
+        <v>327289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5283275524027116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4883898285503628</v>
+        <v>0.490561266581773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5667650835770661</v>
+        <v>0.5657267391839697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1073</v>
@@ -4938,19 +4938,19 @@
         <v>590605</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>568907</v>
+        <v>569285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>611714</v>
+        <v>611918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7184645049376838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6920693928985482</v>
+        <v>0.6925288335924907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7441430121112355</v>
+        <v>0.7443908671439777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1487</v>
@@ -4959,19 +4959,19 @@
         <v>896258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>862962</v>
+        <v>861331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928349</v>
+        <v>929198</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6399250292505841</v>
+        <v>0.639925029250584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6161516943986292</v>
+        <v>0.6149877081957226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6628381842704475</v>
+        <v>0.6634443783938359</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>104863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88840</v>
+        <v>87490</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>126207</v>
+        <v>121070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1812582451217225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1535621218171984</v>
+        <v>0.1512290027988361</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2181515450508001</v>
+        <v>0.2092713148008685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -5009,19 +5009,19 @@
         <v>113577</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97194</v>
+        <v>98156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129791</v>
+        <v>131477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1381646461172377</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1182353775830124</v>
+        <v>0.1194057553426649</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1578891757363679</v>
+        <v>0.1599397191628703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -5030,19 +5030,19 @@
         <v>218440</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194904</v>
+        <v>194245</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>241998</v>
+        <v>245200</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1559652294660207</v>
+        <v>0.1559652294660206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1391607247977042</v>
+        <v>0.138690608224198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1727856560172824</v>
+        <v>0.1750716382649912</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>168013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>146206</v>
+        <v>147430</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>191224</v>
+        <v>190756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.290414202475566</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2527204971237079</v>
+        <v>0.2548366339110505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3305349160089768</v>
+        <v>0.3297260688622887</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -5080,19 +5080,19 @@
         <v>117856</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103662</v>
+        <v>100575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136648</v>
+        <v>135349</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1433708489450784</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1261035223868854</v>
+        <v>0.1223482132945776</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.166231068211213</v>
+        <v>0.1646500363874897</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>324</v>
@@ -5101,19 +5101,19 @@
         <v>285869</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>259244</v>
+        <v>256828</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>317451</v>
+        <v>319628</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2041097412833953</v>
+        <v>0.2041097412833952</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1850993692089382</v>
+        <v>0.1833746511628718</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2266589278907481</v>
+        <v>0.2282133358123105</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>633466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>589523</v>
+        <v>588344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>685716</v>
+        <v>683160</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2839932410291523</v>
+        <v>0.2839932410291522</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2642928543719242</v>
+        <v>0.2637644144447297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3074180074681448</v>
+        <v>0.3062719877970255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1293</v>
@@ -5226,19 +5226,19 @@
         <v>854181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>813711</v>
+        <v>809840</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894468</v>
+        <v>894146</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3933793074927611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3747415432581963</v>
+        <v>0.3729589149277022</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4119327759004729</v>
+        <v>0.4117848522364289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1977</v>
@@ -5247,19 +5247,19 @@
         <v>1487647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1424426</v>
+        <v>1427308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1547997</v>
+        <v>1554169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3379510520407051</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3235890761573723</v>
+        <v>0.3242438956862759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3516608837174011</v>
+        <v>0.3530630598108221</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>503405</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>457594</v>
+        <v>462691</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>548163</v>
+        <v>547432</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2256850942060721</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2051471960381792</v>
+        <v>0.2074319378870649</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2457506159188273</v>
+        <v>0.2454227596904721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>621</v>
@@ -5297,19 +5297,19 @@
         <v>465924</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>434342</v>
+        <v>430078</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>502637</v>
+        <v>503864</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2145737794277682</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2000290715220942</v>
+        <v>0.1980654213143644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2314813033578164</v>
+        <v>0.2320464473814263</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1088</v>
@@ -5318,19 +5318,19 @@
         <v>969330</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>917277</v>
+        <v>915149</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1023253</v>
+        <v>1027357</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2202041198710359</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2083793628978074</v>
+        <v>0.2078959443855324</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.232453908090251</v>
+        <v>0.2333863527026003</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>1093695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1033758</v>
+        <v>1042990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1149279</v>
+        <v>1149422</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4903216647647757</v>
+        <v>0.4903216647647758</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4634507903114724</v>
+        <v>0.467589742781747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5152410521819667</v>
+        <v>0.5153050704376947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1007</v>
@@ -5368,19 +5368,19 @@
         <v>851288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>811736</v>
+        <v>810705</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>897729</v>
+        <v>897183</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3920469130794707</v>
+        <v>0.3920469130794706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3738322366918031</v>
+        <v>0.3733571323195056</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4134345659507974</v>
+        <v>0.4131835215863449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1848</v>
@@ -5389,19 +5389,19 @@
         <v>1944983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1875603</v>
+        <v>1876391</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2021027</v>
+        <v>2014795</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4418448280882589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4260836765812935</v>
+        <v>0.4262628184202993</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4591198719799629</v>
+        <v>0.457704210373623</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>196570</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>171897</v>
+        <v>173727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>220044</v>
+        <v>221985</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2762416589592913</v>
+        <v>0.2762416589592912</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2415682651760976</v>
+        <v>0.2441396872784792</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3092300144479069</v>
+        <v>0.3119577974620028</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>401</v>
@@ -5514,19 +5514,19 @@
         <v>274848</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>250824</v>
+        <v>252619</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>298201</v>
+        <v>297275</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3740049162455904</v>
+        <v>0.3740049162455905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3413135929663441</v>
+        <v>0.3437574529394964</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4057836596746063</v>
+        <v>0.4045239722755222</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>621</v>
@@ -5535,19 +5535,19 @@
         <v>471418</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>441140</v>
+        <v>435965</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506792</v>
+        <v>507296</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3259103553042558</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3049781232972394</v>
+        <v>0.3014007320874903</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3503658500569709</v>
+        <v>0.350714824114368</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>171646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149741</v>
+        <v>147166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197955</v>
+        <v>195331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2412158579880959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2104321989756642</v>
+        <v>0.2068133960278517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2781876298151775</v>
+        <v>0.2744998562066817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>237</v>
@@ -5585,19 +5585,19 @@
         <v>175249</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154993</v>
+        <v>154188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>198646</v>
+        <v>196729</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2384735595101167</v>
+        <v>0.2384735595101166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2109104209726981</v>
+        <v>0.2098143523980822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2703112344548557</v>
+        <v>0.2677027263015287</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>408</v>
@@ -5606,19 +5606,19 @@
         <v>346895</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>315362</v>
+        <v>317788</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>378602</v>
+        <v>379685</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2398226311851967</v>
+        <v>0.2398226311851966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2180227469677266</v>
+        <v>0.2197001853898986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2617428381746376</v>
+        <v>0.2624920790272371</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>343371</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315598</v>
+        <v>316471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372780</v>
+        <v>371478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4825424830526129</v>
+        <v>0.4825424830526128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4435130509299645</v>
+        <v>0.44473980515821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5238711131177838</v>
+        <v>0.5220421446998798</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -5656,19 +5656,19 @@
         <v>284781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>261987</v>
+        <v>264251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308210</v>
+        <v>313040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3875215242442928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3565039048497293</v>
+        <v>0.3595846805075706</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4194032756859966</v>
+        <v>0.4259755100721679</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>656</v>
@@ -5677,19 +5677,19 @@
         <v>628152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>590853</v>
+        <v>590745</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>667721</v>
+        <v>666568</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4342670135105476</v>
+        <v>0.4342670135105475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.408481259354642</v>
+        <v>0.4084064878133426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4616232032324694</v>
+        <v>0.4608258611088531</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>1135689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1074568</v>
+        <v>1074191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1192119</v>
+        <v>1196231</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3225762855793704</v>
+        <v>0.3225762855793705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3052157458724034</v>
+        <v>0.305108651100355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3386044719154199</v>
+        <v>0.33977251077229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2767</v>
@@ -5802,19 +5802,19 @@
         <v>1719633</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1659258</v>
+        <v>1668374</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1769371</v>
+        <v>1771248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4612370573099726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4450432570581745</v>
+        <v>0.4474884524748758</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4745776391249973</v>
+        <v>0.4750809987050204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4085</v>
@@ -5823,19 +5823,19 @@
         <v>2855322</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2766881</v>
+        <v>2773224</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2930846</v>
+        <v>2932502</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3938924218981943</v>
+        <v>0.3938924218981945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3816919394716015</v>
+        <v>0.3825669769178758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4043109483026541</v>
+        <v>0.4045393545352626</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>779915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>730361</v>
+        <v>723947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>835300</v>
+        <v>828508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2215237568586406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2074487697077841</v>
+        <v>0.2056268260403323</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2372551418599314</v>
+        <v>0.2353258761169015</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1044</v>
@@ -5873,19 +5873,19 @@
         <v>754749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>708802</v>
+        <v>712281</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>802336</v>
+        <v>799656</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2024374955839809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.190113575960791</v>
+        <v>0.1910466844976381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2152012351406125</v>
+        <v>0.2144822569563965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1803</v>
@@ -5894,19 +5894,19 @@
         <v>1534664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1467156</v>
+        <v>1466003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1605402</v>
+        <v>1605161</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2117072933131697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2023945773458471</v>
+        <v>0.2022354384630252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2214655985381062</v>
+        <v>0.221432356216535</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>1605079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1539644</v>
+        <v>1541271</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1669298</v>
+        <v>1673696</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4558999575619889</v>
+        <v>0.455899957561989</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4373141468292776</v>
+        <v>0.4377760791925591</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4741404820637742</v>
+        <v>0.475389687500859</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1541</v>
@@ -5944,19 +5944,19 @@
         <v>1253925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1203040</v>
+        <v>1203214</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1312720</v>
+        <v>1312826</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3363254471060464</v>
+        <v>0.3363254471060465</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3226773617338611</v>
+        <v>0.3227239175327737</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3520954598766168</v>
+        <v>0.3521238601751034</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2828</v>
@@ -5965,19 +5965,19 @@
         <v>2859004</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2779584</v>
+        <v>2773914</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2954556</v>
+        <v>2945382</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3944002847886359</v>
+        <v>0.394400284788636</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3834443238596711</v>
+        <v>0.3826621561937742</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4075816929083758</v>
+        <v>0.4063161607845998</v>
       </c>
     </row>
     <row r="19">
